--- a/src/test/resources/Documents/18102/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/18102/Actual/JobPlanning.xlsx
@@ -65,28 +65,28 @@
     <t>Laval Poster  2p</t>
   </si>
   <si>
+    <t>Digital Print F/B 1x1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HC Nuvera DT120-1</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>Proof Approval</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>HC Proof Approval</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
     <t>HC Proof  Approval</t>
-  </si>
-  <si>
-    <t>Digital Print F/B 1x1</t>
-  </si>
-  <si>
-    <t>HC Nuvera DT120-1</t>
   </si>
   <si>
     <t>Laval Poster 2p Packed</t>
@@ -474,7 +474,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>19</v>
@@ -485,13 +485,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="18">
         <v>23</v>
-      </c>
-      <c r="C3" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="18">
-        <v>24</v>
       </c>
       <c r="E3" t="s" s="19">
         <v>18</v>
@@ -518,7 +518,7 @@
         <v>24</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
